--- a/Excel Dataframes, EDA and Predictive Modelling/Ligue1_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Ligue1_Home_Away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +556,33 @@
       <c r="I2" t="n">
         <v>2.53</v>
       </c>
+      <c r="J2" t="n">
+        <v>276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>120</v>
+      </c>
+      <c r="L2" t="n">
+        <v>62</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +614,33 @@
       <c r="I3" t="n">
         <v>2.21</v>
       </c>
+      <c r="J3" t="n">
+        <v>278</v>
+      </c>
+      <c r="K3" t="n">
+        <v>203</v>
+      </c>
+      <c r="L3" t="n">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -573,6 +672,33 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
+      <c r="J4" t="n">
+        <v>322</v>
+      </c>
+      <c r="K4" t="n">
+        <v>207</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -604,6 +730,33 @@
       <c r="I5" t="n">
         <v>1.9</v>
       </c>
+      <c r="J5" t="n">
+        <v>297</v>
+      </c>
+      <c r="K5" t="n">
+        <v>215</v>
+      </c>
+      <c r="L5" t="n">
+        <v>41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -635,6 +788,33 @@
       <c r="I6" t="n">
         <v>1.86</v>
       </c>
+      <c r="J6" t="n">
+        <v>312</v>
+      </c>
+      <c r="K6" t="n">
+        <v>215</v>
+      </c>
+      <c r="L6" t="n">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -666,6 +846,33 @@
       <c r="I7" t="n">
         <v>1.85</v>
       </c>
+      <c r="J7" t="n">
+        <v>310</v>
+      </c>
+      <c r="K7" t="n">
+        <v>212</v>
+      </c>
+      <c r="L7" t="n">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -697,6 +904,33 @@
       <c r="I8" t="n">
         <v>1.81</v>
       </c>
+      <c r="J8" t="n">
+        <v>316</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -728,6 +962,33 @@
       <c r="I9" t="n">
         <v>1.62</v>
       </c>
+      <c r="J9" t="n">
+        <v>318</v>
+      </c>
+      <c r="K9" t="n">
+        <v>217</v>
+      </c>
+      <c r="L9" t="n">
+        <v>47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>29</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -759,6 +1020,33 @@
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
+      <c r="J10" t="n">
+        <v>286</v>
+      </c>
+      <c r="K10" t="n">
+        <v>248</v>
+      </c>
+      <c r="L10" t="n">
+        <v>55</v>
+      </c>
+      <c r="M10" t="n">
+        <v>38</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -790,6 +1078,33 @@
       <c r="I11" t="n">
         <v>1.55</v>
       </c>
+      <c r="J11" t="n">
+        <v>257</v>
+      </c>
+      <c r="K11" t="n">
+        <v>223</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -821,6 +1136,33 @@
       <c r="I12" t="n">
         <v>1.53</v>
       </c>
+      <c r="J12" t="n">
+        <v>277</v>
+      </c>
+      <c r="K12" t="n">
+        <v>210</v>
+      </c>
+      <c r="L12" t="n">
+        <v>38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -852,6 +1194,33 @@
       <c r="I13" t="n">
         <v>1.35</v>
       </c>
+      <c r="J13" t="n">
+        <v>320</v>
+      </c>
+      <c r="K13" t="n">
+        <v>290</v>
+      </c>
+      <c r="L13" t="n">
+        <v>49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>31</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -883,6 +1252,33 @@
       <c r="I14" t="n">
         <v>1.29</v>
       </c>
+      <c r="J14" t="n">
+        <v>222</v>
+      </c>
+      <c r="K14" t="n">
+        <v>310</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -914,6 +1310,33 @@
       <c r="I15" t="n">
         <v>1.27</v>
       </c>
+      <c r="J15" t="n">
+        <v>148</v>
+      </c>
+      <c r="K15" t="n">
+        <v>127</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -945,6 +1368,33 @@
       <c r="I16" t="n">
         <v>1.15</v>
       </c>
+      <c r="J16" t="n">
+        <v>244</v>
+      </c>
+      <c r="K16" t="n">
+        <v>247</v>
+      </c>
+      <c r="L16" t="n">
+        <v>35</v>
+      </c>
+      <c r="M16" t="n">
+        <v>38</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1426,33 @@
       <c r="I17" t="n">
         <v>1</v>
       </c>
+      <c r="J17" t="n">
+        <v>275</v>
+      </c>
+      <c r="K17" t="n">
+        <v>263</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>51</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1007,6 +1484,33 @@
       <c r="I18" t="n">
         <v>0.95</v>
       </c>
+      <c r="J18" t="n">
+        <v>262</v>
+      </c>
+      <c r="K18" t="n">
+        <v>250</v>
+      </c>
+      <c r="L18" t="n">
+        <v>39</v>
+      </c>
+      <c r="M18" t="n">
+        <v>24</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1037,6 +1541,33 @@
       </c>
       <c r="I19" t="n">
         <v>0.55</v>
+      </c>
+      <c r="J19" t="n">
+        <v>127</v>
+      </c>
+      <c r="K19" t="n">
+        <v>110</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9</v>
+      </c>
+      <c r="M19" t="n">
+        <v>15</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,6 +1635,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1135,6 +1711,33 @@
       <c r="I2" t="n">
         <v>2.42</v>
       </c>
+      <c r="J2" t="n">
+        <v>274</v>
+      </c>
+      <c r="K2" t="n">
+        <v>298</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59</v>
+      </c>
+      <c r="M2" t="n">
+        <v>44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1166,6 +1769,33 @@
       <c r="I3" t="n">
         <v>1.71</v>
       </c>
+      <c r="J3" t="n">
+        <v>282</v>
+      </c>
+      <c r="K3" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1197,6 +1827,33 @@
       <c r="I4" t="n">
         <v>1.57</v>
       </c>
+      <c r="J4" t="n">
+        <v>275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>256</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1228,6 +1885,33 @@
       <c r="I5" t="n">
         <v>1.53</v>
       </c>
+      <c r="J5" t="n">
+        <v>276</v>
+      </c>
+      <c r="K5" t="n">
+        <v>229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1259,6 +1943,33 @@
       <c r="I6" t="n">
         <v>1.5</v>
       </c>
+      <c r="J6" t="n">
+        <v>234</v>
+      </c>
+      <c r="K6" t="n">
+        <v>244</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1290,6 +2001,33 @@
       <c r="I7" t="n">
         <v>1.45</v>
       </c>
+      <c r="J7" t="n">
+        <v>212</v>
+      </c>
+      <c r="K7" t="n">
+        <v>258</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>44</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1321,6 +2059,33 @@
       <c r="I8" t="n">
         <v>1.38</v>
       </c>
+      <c r="J8" t="n">
+        <v>237</v>
+      </c>
+      <c r="K8" t="n">
+        <v>329</v>
+      </c>
+      <c r="L8" t="n">
+        <v>37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>47</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1352,6 +2117,33 @@
       <c r="I9" t="n">
         <v>1.35</v>
       </c>
+      <c r="J9" t="n">
+        <v>245</v>
+      </c>
+      <c r="K9" t="n">
+        <v>246</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>33</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1383,6 +2175,33 @@
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
+      <c r="J10" t="n">
+        <v>233</v>
+      </c>
+      <c r="K10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>41</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1414,6 +2233,33 @@
       <c r="I11" t="n">
         <v>1.25</v>
       </c>
+      <c r="J11" t="n">
+        <v>244</v>
+      </c>
+      <c r="K11" t="n">
+        <v>275</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1445,6 +2291,33 @@
       <c r="I12" t="n">
         <v>1.15</v>
       </c>
+      <c r="J12" t="n">
+        <v>267</v>
+      </c>
+      <c r="K12" t="n">
+        <v>235</v>
+      </c>
+      <c r="L12" t="n">
+        <v>36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>36</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1476,6 +2349,33 @@
       <c r="I13" t="n">
         <v>1.15</v>
       </c>
+      <c r="J13" t="n">
+        <v>210</v>
+      </c>
+      <c r="K13" t="n">
+        <v>321</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>45</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1507,6 +2407,33 @@
       <c r="I14" t="n">
         <v>1.05</v>
       </c>
+      <c r="J14" t="n">
+        <v>275</v>
+      </c>
+      <c r="K14" t="n">
+        <v>223</v>
+      </c>
+      <c r="L14" t="n">
+        <v>40</v>
+      </c>
+      <c r="M14" t="n">
+        <v>44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1538,6 +2465,33 @@
       <c r="I15" t="n">
         <v>0.95</v>
       </c>
+      <c r="J15" t="n">
+        <v>191</v>
+      </c>
+      <c r="K15" t="n">
+        <v>237</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>45</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1569,6 +2523,33 @@
       <c r="I16" t="n">
         <v>0.92</v>
       </c>
+      <c r="J16" t="n">
+        <v>94</v>
+      </c>
+      <c r="K16" t="n">
+        <v>227</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13</v>
+      </c>
+      <c r="M16" t="n">
+        <v>31</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1600,6 +2581,33 @@
       <c r="I17" t="n">
         <v>0.9</v>
       </c>
+      <c r="J17" t="n">
+        <v>221</v>
+      </c>
+      <c r="K17" t="n">
+        <v>233</v>
+      </c>
+      <c r="L17" t="n">
+        <v>29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>47</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1631,6 +2639,33 @@
       <c r="I18" t="n">
         <v>0.83</v>
       </c>
+      <c r="J18" t="n">
+        <v>109</v>
+      </c>
+      <c r="K18" t="n">
+        <v>201</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1661,6 +2696,33 @@
       </c>
       <c r="I19" t="n">
         <v>0.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>173</v>
+      </c>
+      <c r="K19" t="n">
+        <v>323</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/Ligue1_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Ligue1_Home_Away.xlsx
@@ -645,349 +645,349 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>39.762</v>
+        <v>33.722</v>
       </c>
       <c r="D4" t="n">
-        <v>26.833</v>
+        <v>22.023</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>305</v>
+      </c>
+      <c r="K4" t="n">
+        <v>226</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43</v>
+      </c>
+      <c r="M4" t="n">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
-        <v>42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>322</v>
-      </c>
-      <c r="K4" t="n">
-        <v>207</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="O4" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="R4" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>32.473</v>
+        <v>43.608</v>
       </c>
       <c r="D5" t="n">
-        <v>21.596</v>
+        <v>18.259</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
         <v>16</v>
       </c>
-      <c r="G5" t="n">
-        <v>15</v>
-      </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K5" t="n">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L5" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>45.596</v>
+        <v>37.9</v>
       </c>
       <c r="D6" t="n">
-        <v>24.274</v>
+        <v>26.095</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G6" t="n">
         <v>23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21</v>
       </c>
       <c r="H6" t="n">
         <v>39</v>
       </c>
       <c r="I6" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L6" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N6" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="O6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="P6" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="R6" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>46.22</v>
+        <v>35.295</v>
       </c>
       <c r="D7" t="n">
-        <v>19.77</v>
+        <v>20.395</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L7" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="O7" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="R7" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>35.295</v>
+        <v>45.828</v>
       </c>
       <c r="D8" t="n">
-        <v>20.395</v>
+        <v>26.199</v>
       </c>
       <c r="E8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" t="n">
         <v>25</v>
       </c>
-      <c r="F8" t="n">
-        <v>13</v>
-      </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L8" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M8" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.38</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>39.844</v>
+        <v>31.771</v>
       </c>
       <c r="D9" t="n">
-        <v>24.471</v>
+        <v>24.082</v>
       </c>
       <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>31</v>
       </c>
-      <c r="F9" t="n">
-        <v>25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>34</v>
-      </c>
       <c r="I9" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="K9" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L9" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10">
@@ -997,171 +997,171 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>39.445</v>
+        <v>42.276</v>
       </c>
       <c r="D10" t="n">
-        <v>28.512</v>
+        <v>31.903</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="J10" t="n">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K10" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="O10" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="P10" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="R10" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>31.771</v>
+        <v>33.933</v>
       </c>
       <c r="D11" t="n">
-        <v>24.082</v>
+        <v>26.307</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="K11" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="P11" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>31.377</v>
+        <v>36.755</v>
       </c>
       <c r="D12" t="n">
-        <v>24.46</v>
+        <v>24.863</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="J12" t="n">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="K12" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="O12" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="P12" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="R12" t="n">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
@@ -1171,55 +1171,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>39.08</v>
+        <v>40.636</v>
       </c>
       <c r="D13" t="n">
-        <v>28.571</v>
+        <v>30.187</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
         <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J13" t="n">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="K13" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N13" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="P13" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="14">
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>24.556</v>
+        <v>23.861</v>
       </c>
       <c r="D14" t="n">
-        <v>28.891</v>
+        <v>28.306</v>
       </c>
       <c r="E14" t="n">
         <v>29</v>
@@ -1247,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
         <v>33</v>
@@ -1265,19 +1265,19 @@
         <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="O14" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="P14" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="R14" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
@@ -1348,19 +1348,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>26.716</v>
+        <v>27.176</v>
       </c>
       <c r="D16" t="n">
-        <v>30.072</v>
+        <v>31.911</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="H16" t="n">
         <v>23</v>
@@ -1369,22 +1369,22 @@
         <v>1.15</v>
       </c>
       <c r="J16" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K16" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.45</v>
       </c>
       <c r="P16" t="n">
         <v>0.25</v>
@@ -1403,55 +1403,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>30.735</v>
+        <v>31.698</v>
       </c>
       <c r="D17" t="n">
-        <v>35.9</v>
+        <v>38.264</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="H17" t="n">
         <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="J17" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K17" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="P17" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="R17" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="18">
@@ -1464,19 +1464,19 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>31.739</v>
+        <v>30.294</v>
       </c>
       <c r="D18" t="n">
-        <v>24.623</v>
+        <v>25.275</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H18" t="n">
         <v>19</v>
@@ -1485,16 +1485,16 @@
         <v>0.95</v>
       </c>
       <c r="J18" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L18" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N18" t="n">
         <v>0.65</v>
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>44.704</v>
+        <v>46.551</v>
       </c>
       <c r="D2" t="n">
-        <v>33.99</v>
+        <v>36.546</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
@@ -1706,34 +1706,34 @@
         <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="R2" t="n">
         <v>0.05</v>
@@ -1746,55 +1746,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>38.516</v>
+        <v>37.05</v>
       </c>
       <c r="D3" t="n">
-        <v>34.351</v>
+        <v>34.074</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" t="n">
         <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -1804,196 +1804,196 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>32.224</v>
+        <v>35.615</v>
       </c>
       <c r="D4" t="n">
-        <v>31.802</v>
+        <v>34.633</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="J4" t="n">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="O4" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="P4" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>31.149</v>
+        <v>22.118</v>
       </c>
       <c r="D5" t="n">
-        <v>22.597</v>
+        <v>31.053</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="K5" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="R5" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>22.118</v>
+        <v>27.317</v>
       </c>
       <c r="D6" t="n">
-        <v>31.053</v>
+        <v>33.373</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="K6" t="n">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L6" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>27.317</v>
+        <v>28.428</v>
       </c>
       <c r="D7" t="n">
-        <v>33.373</v>
+        <v>38.04</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="H7" t="n">
         <v>29</v>
@@ -2002,89 +2002,89 @@
         <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K7" t="n">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="L7" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N7" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.553</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.489</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>271</v>
+      </c>
+      <c r="K8" t="n">
+        <v>224</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
-        <v>29.166</v>
-      </c>
-      <c r="D8" t="n">
-        <v>39.902</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>29</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>237</v>
-      </c>
-      <c r="K8" t="n">
-        <v>329</v>
-      </c>
-      <c r="L8" t="n">
-        <v>37</v>
-      </c>
-      <c r="M8" t="n">
-        <v>47</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="P8" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="R8" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9">
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>27.628</v>
+        <v>27.222</v>
       </c>
       <c r="D11" t="n">
-        <v>31.093</v>
+        <v>30.477</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -2228,16 +2228,16 @@
         <v>-5</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="J11" t="n">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K11" t="n">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
         <v>36</v>
@@ -2246,19 +2246,19 @@
         <v>42</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="O11" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="P11" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
@@ -2268,55 +2268,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>27.621</v>
+        <v>30.926</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8</v>
+        <v>28.537</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="J12" t="n">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K12" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="O12" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="P12" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="R12" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13">
@@ -2384,345 +2384,345 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>32.609</v>
+        <v>33.718</v>
       </c>
       <c r="D14" t="n">
-        <v>29.812</v>
+        <v>30.346</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="J14" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K14" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M14" t="n">
         <v>44</v>
       </c>
       <c r="N14" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="O14" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P14" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>18.262</v>
+        <v>12.285</v>
       </c>
       <c r="D15" t="n">
-        <v>34.4</v>
+        <v>28.704</v>
       </c>
       <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J15" t="n">
+        <v>107</v>
+      </c>
+      <c r="K15" t="n">
+        <v>236</v>
+      </c>
+      <c r="L15" t="n">
         <v>17</v>
       </c>
-      <c r="F15" t="n">
-        <v>31</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>191</v>
-      </c>
-      <c r="K15" t="n">
-        <v>237</v>
-      </c>
-      <c r="L15" t="n">
-        <v>22</v>
-      </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="O15" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="P15" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="R15" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>9.920999999999999</v>
+        <v>24.952</v>
       </c>
       <c r="D16" t="n">
-        <v>27.741</v>
+        <v>32.232</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="K16" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L16" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M16" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O16" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="P16" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="R16" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.215</v>
+      </c>
+      <c r="D17" t="n">
+        <v>34.221</v>
+      </c>
+      <c r="E17" t="n">
         <v>21</v>
       </c>
-      <c r="C17" t="n">
-        <v>23.477</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.932</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22</v>
-      </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
         <v>0.9</v>
       </c>
       <c r="J17" t="n">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="L17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M17" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N17" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O17" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="P17" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>9.645</v>
+        <v>16.693</v>
       </c>
       <c r="D18" t="n">
-        <v>25.642</v>
+        <v>34.176</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
         <v>0.83</v>
       </c>
       <c r="J18" t="n">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="K18" t="n">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P18" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="R18" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>19.866</v>
+        <v>10.072</v>
       </c>
       <c r="D19" t="n">
-        <v>36.356</v>
+        <v>26.891</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="J19" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="L19" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="O19" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
